--- a/doc/examples/review.ottr.xlsx
+++ b/doc/examples/review.ottr.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Review Comments" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Review Comments" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t xml:space="preserve">EXAMPLE STUDY</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Reviewed with comments (Implement comments and submit for new review)</t>
+    <t xml:space="preserve">1. Reviewed</t>
   </si>
   <si>
     <t xml:space="preserve">Finalized</t>
@@ -40,19 +40,19 @@
     <t xml:space="preserve">Document</t>
   </si>
   <si>
-    <t xml:space="preserve">01234-AB-C-DE-01234</t>
+    <t xml:space="preserve">A123-BC-D-EF-00001</t>
   </si>
   <si>
     <t xml:space="preserve">Revision</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
+    <t xml:space="preserve">F01</t>
   </si>
   <si>
     <t xml:space="preserve">Comments responsible: </t>
   </si>
   <si>
-    <t xml:space="preserve">Andreas Dukstad</t>
+    <t xml:space="preserve">Turi Skogen</t>
   </si>
   <si>
     <t xml:space="preserve">#OTTR</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rdf.equinor.com/review/data#</t>
+    <t xml:space="preserve">https://example.com/data/</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -112,103 +112,28 @@
     <t xml:space="preserve">Contractor author</t>
   </si>
   <si>
-    <t xml:space="preserve">comment:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This comment is about the whole revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turi Skogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This comment is about a new tag, and not filtered on property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trude Luth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is about a deleted tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jøss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is about a special property on an updated tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Dry Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Dry Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:4794af36-cb32-11ee-bb2b-9b9379182e80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This comment is about an updated tag, and not filtered on property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Cog East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:51485b78-cb32-11ee-a32b-cb0d5ec8bd5c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:50485b78-cb32-11ee-a32b-cb0d5ec8bd5u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is about all tags/rows on system 80</t>
+    <t xml:space="preserve">comment:first-uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB-CD-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment:another-uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB-CD-02</t>
   </si>
 </sst>
 </file>
@@ -301,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,11 +255,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,7 +308,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -387,7 +316,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B15:G30" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B15:G30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B15:G17" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B15:G17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Equinor comment"/>
     <tableColumn id="2" name="Equinor author"/>
@@ -409,20 +338,126 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.85"/>
@@ -432,7 +467,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="3" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -450,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -458,7 +493,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -478,7 +513,7 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -486,7 +521,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -494,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -502,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -510,22 +545,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -544,11 +579,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -560,10 +595,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -582,274 +617,64 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://rdf.equinor.com/review/data#"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://example.com/data/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/examples/review.ottr.xlsx
+++ b/doc/examples/review.ottr.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{016DBEFB-66BD-4DC2-BC86-F12DE8122918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Review Comments" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,130 +36,125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
-    <t xml:space="preserve">EXAMPLE STUDY</t>
+    <t>EXAMPLE STUDY</t>
   </si>
   <si>
     <t xml:space="preserve"> MASTER EQUIPMENT LIST</t>
   </si>
   <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Reviewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A123-BC-D-EF-00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1. Reviewed</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>A123-BC-D-EF-00001</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>F01</t>
   </si>
   <si>
     <t xml:space="preserve">Comments responsible: </t>
   </si>
   <si>
-    <t xml:space="preserve">Turi Skogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#OTTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://example.com/data/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rdf.equinor.com/ontology/template#CommentReply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equinor comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equinor author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor reply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:first-uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB-CD-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment:another-uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB-CD-02</t>
+    <t>Turi Skogen</t>
+  </si>
+  <si>
+    <t>#OTTR</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>https://example.com/data/</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>https://rdf.equinor.com/ontology/template#CommentReply</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Comment Id</t>
+  </si>
+  <si>
+    <t>Equinor comment</t>
+  </si>
+  <si>
+    <t>Equinor author</t>
+  </si>
+  <si>
+    <t>Tag Number</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Contractor reply</t>
+  </si>
+  <si>
+    <t>Contractor author</t>
+  </si>
+  <si>
+    <t>comment:first-uuid</t>
+  </si>
+  <si>
+    <t>A comment</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>AB-CD-01</t>
+  </si>
+  <si>
+    <t>comment:another-uuid</t>
+  </si>
+  <si>
+    <t>Another comment</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>AB-CD-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,22 +163,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -186,209 +180,139 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B15:G17" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B15:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B15:G17" totalsRowShown="0">
+  <autoFilter ref="B15:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Equinor comment"/>
-    <tableColumn id="2" name="Equinor author"/>
-    <tableColumn id="3" name="Tag Number"/>
-    <tableColumn id="4" name="Property"/>
-    <tableColumn id="5" name="Contractor reply"/>
-    <tableColumn id="6" name="Contractor author"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Equinor comment"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Equinor author"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tag Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Property"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Contractor reply"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Contractor author"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -441,43 +365,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XEZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="3" width="9.14"/>
+    <col min="1" max="1" width="31.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16381" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="16.350000000000001">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="14.85">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="14.85">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -485,15 +408,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="16.350000000000001">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>45324</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="16.350000000000001">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="14.85">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -509,7 +432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="14.85">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -517,11 +440,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="14.85">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -529,7 +452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="16.350000000000001">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -537,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="14.85">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -545,7 +468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="14.85">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -556,8 +479,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+    <row r="13" spans="1:7" ht="14.85">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -579,7 +502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="14.85">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -594,7 +517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="14.85">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -617,7 +540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="16.350000000000001">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -634,7 +557,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="28.35">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -651,7 +574,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="14.85">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -659,31 +582,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" ht="12.75"/>
+    <row r="1048565" ht="12.75"/>
+    <row r="1048566" ht="12.75"/>
+    <row r="1048567" ht="12.75"/>
+    <row r="1048568" ht="12.75"/>
+    <row r="1048569" ht="12.75"/>
+    <row r="1048570" ht="12.75"/>
+    <row r="1048571" ht="12.75"/>
+    <row r="1048572" ht="12.75"/>
+    <row r="1048573" ht="12.75"/>
+    <row r="1048574" ht="12.75"/>
+    <row r="1048575" ht="12.75"/>
+    <row r="1048576" ht="12.75"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://example.com/data/"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
